--- a/network/E1832_R4年度情報ネットワーク応用中間2.xlsx
+++ b/network/E1832_R4年度情報ネットワーク応用中間2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\Documents\R4年度明石高専\R4年度講義科目\R4年度情報ネットワーク応用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{C6E28EC1-19DD-AB40-BE47-C14EECBBC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0257D93F-7C02-C547-986A-5E15EDE1A183}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{C6E28EC1-19DD-AB40-BE47-C14EECBBC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500300C3-5DE0-2148-95FC-7463EE601289}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1670" windowWidth="27100" windowHeight="17120" activeTab="2" xr2:uid="{C5DDA20C-0AE6-4C08-AAEE-A3A8DA39F0C6}"/>
   </bookViews>
@@ -5741,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C58976D-E94B-4689-8D9D-1CF08CEE8E9B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5886,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746273E6-36F0-485D-ACAE-2A9FFE08DE10}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" sqref="C21:H21"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6115,8 +6115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D144C9-275C-481C-8CC0-5D8843801CAB}">
   <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -11056,15 +11056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010074DBDCE946A00C45914821B96A6AF72C" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c341281d9521d6daf1267c161dcec18a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02cc4846-696b-49ba-9710-894e1db94c59" xmlns:ns3="8aecbe8f-45d2-4924-a292-c47b1f105ea1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff8054bac866b500d07080155530ed9c" ns2:_="" ns3:_="">
     <xsd:import namespace="02cc4846-696b-49ba-9710-894e1db94c59"/>
@@ -11229,6 +11220,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11236,14 +11236,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DC3CEB-666B-4CCF-B2C2-793EB3F8D819}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C3CD5BD-59D5-40B5-9BEA-F363208AA961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11252,6 +11244,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="02cc4846-696b-49ba-9710-894e1db94c59"/>
     <ds:schemaRef ds:uri="8aecbe8f-45d2-4924-a292-c47b1f105ea1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24DC3CEB-666B-4CCF-B2C2-793EB3F8D819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
